--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/45.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/45.xlsx
@@ -479,13 +479,13 @@
         <v>0.1876502640877799</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.809026358047205</v>
+        <v>-1.796174491921785</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04098363701102688</v>
+        <v>0.04265367129872692</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07530646968978923</v>
+        <v>-0.07884329065535188</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2253854750991378</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.844370170406452</v>
+        <v>-1.838472320758938</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01642106862312965</v>
+        <v>0.02028056350855894</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06290949509042501</v>
+        <v>-0.06256793294110276</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2861497184742828</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.944718611446735</v>
+        <v>-1.939301624640778</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01479487859050559</v>
+        <v>-0.01768949975457755</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06186277237476006</v>
+        <v>-0.0665407572032657</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.3531588353679129</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.995595631504537</v>
+        <v>-1.983670075632002</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03583951424229578</v>
+        <v>-0.03740094121062607</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05914758939051637</v>
+        <v>-0.06237275457006148</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.4134873369717839</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.96183685640044</v>
+        <v>-1.942086064466359</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02364716212870066</v>
+        <v>-0.02143723928239449</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0727046160822792</v>
+        <v>-0.07886847496129269</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.4527236689061339</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.838429035233102</v>
+        <v>-1.814965132191873</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01730251933105804</v>
+        <v>0.01967141810861557</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06712786633551086</v>
+        <v>-0.06873336583923756</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.462968397231452</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.573734109699572</v>
+        <v>-1.545059416357277</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05647355918374695</v>
+        <v>0.05648142927935346</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06382557421902202</v>
+        <v>-0.06442684952335888</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.4462851698571729</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.177063976921465</v>
+        <v>-1.140693117085569</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05390318595866293</v>
+        <v>0.04978869997558293</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04971449279656135</v>
+        <v>-0.04941700318263552</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.4148560859860132</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6729930104300864</v>
+        <v>-0.6350622976449825</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04952583878232571</v>
+        <v>0.04383890769706633</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01857409850074854</v>
+        <v>-0.02065809981735065</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3910892287697696</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1646839974546062</v>
+        <v>-0.1277386206394364</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04407478228494098</v>
+        <v>-0.05116731244552188</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02024436106876902</v>
+        <v>0.01792897894133571</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3955666752468627</v>
       </c>
       <c r="E12" t="n">
-        <v>0.41791084795066</v>
+        <v>0.4575336312911622</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2296201563038661</v>
+        <v>-0.2310729759528266</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0821946056449215</v>
+        <v>0.07857750970417252</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4452310984513232</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9931314137726325</v>
+        <v>1.038669360970983</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5193372638087133</v>
+        <v>-0.5133355288991938</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1741409326157012</v>
+        <v>0.169617201661083</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5488580685503208</v>
       </c>
       <c r="E14" t="n">
-        <v>1.577380553274386</v>
+        <v>1.628086005247966</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8340128055104649</v>
+        <v>-0.8238407069390591</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2842357000550778</v>
+        <v>0.2738440258162506</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7034128374600871</v>
       </c>
       <c r="E15" t="n">
-        <v>2.250969444082044</v>
+        <v>2.311860373789562</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.172888104192654</v>
+        <v>-1.161277352144379</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4050747220164529</v>
+        <v>0.3960461483366721</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8983361583481678</v>
       </c>
       <c r="E16" t="n">
-        <v>2.786590836850334</v>
+        <v>2.855044928435701</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.522517101511569</v>
+        <v>-1.510460902051966</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5283282893099033</v>
+        <v>0.5235259569708148</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.109461009630117</v>
       </c>
       <c r="E17" t="n">
-        <v>3.284747426493425</v>
+        <v>3.353410862621925</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.863806945525833</v>
+        <v>-1.851722413722047</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6541286195416182</v>
+        <v>0.6438691629089802</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.318106875715372</v>
       </c>
       <c r="E18" t="n">
-        <v>3.703576600461204</v>
+        <v>3.76532537058983</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.181928015084112</v>
+        <v>-2.16213944669112</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8055146305900757</v>
+        <v>0.7985039494238024</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.514078361130808</v>
       </c>
       <c r="E19" t="n">
-        <v>4.055901892534907</v>
+        <v>4.112799535731685</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.53926891908784</v>
+        <v>-2.515841218486401</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9498049634397097</v>
+        <v>0.9421379162998541</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.690188799134132</v>
       </c>
       <c r="E20" t="n">
-        <v>4.364658335331008</v>
+        <v>4.424598557489259</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.867369269875165</v>
+        <v>-2.837946130440691</v>
       </c>
       <c r="G20" t="n">
-        <v>1.076497762513202</v>
+        <v>1.063491642513894</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.8411228504042</v>
       </c>
       <c r="E21" t="n">
-        <v>4.59237482964782</v>
+        <v>4.641629035991562</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.143882717980981</v>
+        <v>-3.110836973538834</v>
       </c>
       <c r="G21" t="n">
-        <v>1.189334471261885</v>
+        <v>1.172228031451588</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.96119679927351</v>
       </c>
       <c r="E22" t="n">
-        <v>4.760587105102982</v>
+        <v>4.809424196379579</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.369443593111173</v>
+        <v>-3.328190125961004</v>
       </c>
       <c r="G22" t="n">
-        <v>1.279329014522251</v>
+        <v>1.257417094334624</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.050861356920925</v>
       </c>
       <c r="E23" t="n">
-        <v>4.875510963206509</v>
+        <v>4.921953971399608</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.509361300841834</v>
+        <v>-3.468061400127586</v>
       </c>
       <c r="G23" t="n">
-        <v>1.358752445363963</v>
+        <v>1.334515698934175</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.11142097038918</v>
       </c>
       <c r="E24" t="n">
-        <v>4.945052702004696</v>
+        <v>4.991712924836533</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.626889373581553</v>
+        <v>-3.58369514085482</v>
       </c>
       <c r="G24" t="n">
-        <v>1.421486551462523</v>
+        <v>1.395899296626659</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.148244513144591</v>
       </c>
       <c r="E25" t="n">
-        <v>4.94379978278414</v>
+        <v>4.985300370936354</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.728136579540099</v>
+        <v>-3.685302010182582</v>
       </c>
       <c r="G25" t="n">
-        <v>1.46090943437462</v>
+        <v>1.435095520785289</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.168982927365936</v>
       </c>
       <c r="E26" t="n">
-        <v>4.937221956876225</v>
+        <v>4.973606982884211</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.744335597326965</v>
+        <v>-3.703675535385525</v>
       </c>
       <c r="G26" t="n">
-        <v>1.487685073647066</v>
+        <v>1.459870581754561</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.177218563678651</v>
       </c>
       <c r="E27" t="n">
-        <v>4.90094868622585</v>
+        <v>4.931265868521223</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.691879049080937</v>
+        <v>-3.658413041533403</v>
       </c>
       <c r="G27" t="n">
-        <v>1.482374333131797</v>
+        <v>1.455724615389056</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.176210506818045</v>
       </c>
       <c r="E28" t="n">
-        <v>4.750949386023258</v>
+        <v>4.780500021006557</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.620054982556866</v>
+        <v>-3.589521372632314</v>
       </c>
       <c r="G28" t="n">
-        <v>1.436812775646628</v>
+        <v>1.408209700174352</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.164763162038788</v>
       </c>
       <c r="E29" t="n">
-        <v>4.625240348900579</v>
+        <v>4.652071078842271</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.529624435999899</v>
+        <v>-3.500400409984269</v>
       </c>
       <c r="G29" t="n">
-        <v>1.390761698214733</v>
+        <v>1.363929394253921</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.143157249437424</v>
       </c>
       <c r="E30" t="n">
-        <v>4.480095323668078</v>
+        <v>4.500097958661568</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.408214045097491</v>
+        <v>-3.37205331681429</v>
       </c>
       <c r="G30" t="n">
-        <v>1.337479576939584</v>
+        <v>1.311393358042268</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.112719818418406</v>
       </c>
       <c r="E31" t="n">
-        <v>4.328164702003651</v>
+        <v>4.344671440528732</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.288306842455926</v>
+        <v>-3.250418628187097</v>
       </c>
       <c r="G31" t="n">
-        <v>1.267102033987987</v>
+        <v>1.246833389762999</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.072419315029354</v>
       </c>
       <c r="E32" t="n">
-        <v>4.187982559060612</v>
+        <v>4.207558634872228</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.151402594332996</v>
+        <v>-3.111278485902359</v>
       </c>
       <c r="G32" t="n">
-        <v>1.199068205508008</v>
+        <v>1.176976847140553</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.025088623771292</v>
       </c>
       <c r="E33" t="n">
-        <v>3.984940388489308</v>
+        <v>4.002786617286615</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.032143887569406</v>
+        <v>-2.987065553954476</v>
       </c>
       <c r="G33" t="n">
-        <v>1.127813933905847</v>
+        <v>1.107431960304124</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.969777988807771</v>
       </c>
       <c r="E34" t="n">
-        <v>3.727870011579359</v>
+        <v>3.747290259497967</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.952175846111725</v>
+        <v>-2.90906424938886</v>
       </c>
       <c r="G34" t="n">
-        <v>1.068306567005953</v>
+        <v>1.048615587798482</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.907750457509689</v>
       </c>
       <c r="E35" t="n">
-        <v>3.487106472766084</v>
+        <v>3.506289043797376</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.864093736083738</v>
+        <v>-2.816127077381221</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9754740672698813</v>
+        <v>0.9520038681521668</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.839547416655233</v>
       </c>
       <c r="E36" t="n">
-        <v>3.231504655696308</v>
+        <v>3.245820359604538</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.793454905958006</v>
+        <v>-2.752588647511677</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9028016044394286</v>
+        <v>0.8802380403355832</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.764356997618754</v>
       </c>
       <c r="E37" t="n">
-        <v>2.981171080625525</v>
+        <v>2.999283318654332</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.694526230165136</v>
+        <v>-2.654556375608387</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8462187650669114</v>
+        <v>0.8283599441166338</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.685145299472456</v>
       </c>
       <c r="E38" t="n">
-        <v>2.698900657583552</v>
+        <v>2.710466550086869</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.602006960234204</v>
+        <v>-2.567845236235054</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7808182705768678</v>
+        <v>0.7610847928531211</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.602533546053221</v>
       </c>
       <c r="E39" t="n">
-        <v>2.445137294847455</v>
+        <v>2.454565669384046</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.491925571957358</v>
+        <v>-2.45228311337784</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7112576435492266</v>
+        <v>0.6915855525712106</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.519565546958635</v>
       </c>
       <c r="E40" t="n">
-        <v>2.210696590844445</v>
+        <v>2.218843713816298</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.397164898797693</v>
+        <v>-2.355113403953023</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6556192156494899</v>
+        <v>0.6402646591212017</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.436232190849493</v>
       </c>
       <c r="E41" t="n">
-        <v>2.009126128151558</v>
+        <v>2.018190904271128</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.300149443246764</v>
+        <v>-2.260867435046023</v>
       </c>
       <c r="G41" t="n">
-        <v>0.590520932830736</v>
+        <v>0.5757440413199651</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.351745760909524</v>
       </c>
       <c r="E42" t="n">
-        <v>1.760440551100777</v>
+        <v>1.762469461748134</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.201630799434994</v>
+        <v>-2.163523796508304</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5197719213665127</v>
+        <v>0.5063660005103947</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.266986050960818</v>
       </c>
       <c r="E43" t="n">
-        <v>1.543373870158684</v>
+        <v>1.545561756737292</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.12029257433222</v>
+        <v>-2.081671654162426</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4659577816283635</v>
+        <v>0.4532334110517687</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.18039183872495</v>
       </c>
       <c r="E44" t="n">
-        <v>1.316464847651099</v>
+        <v>1.312984691373903</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.031659557611778</v>
+        <v>-1.993098450168593</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4154459340067031</v>
+        <v>0.4081503553794744</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.09445706721978</v>
       </c>
       <c r="E45" t="n">
-        <v>1.10532120066246</v>
+        <v>1.102826380355199</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.95176864309104</v>
+        <v>-1.915200243855422</v>
       </c>
       <c r="G45" t="n">
-        <v>0.355601727014851</v>
+        <v>0.3496487866980917</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.009209168068769</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9070058095124227</v>
+        <v>0.9019846885154735</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.884579275869638</v>
+        <v>-1.84847049021744</v>
       </c>
       <c r="G46" t="n">
-        <v>0.286843849739073</v>
+        <v>0.2800708454601162</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.9266946405388098</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7473939745360477</v>
+        <v>0.7403990335609875</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.834836336588733</v>
+        <v>-1.80246112429226</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2473643021386092</v>
+        <v>0.243065655918337</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.8493249038168533</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5861829361324313</v>
+        <v>0.5805007271045358</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.769300476454258</v>
+        <v>-1.734918389778126</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2014375722172977</v>
+        <v>0.1999312359182129</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7780814882993661</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4595672639958827</v>
+        <v>0.4518624403971158</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.720734903476086</v>
+        <v>-1.687076865595753</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1497373401590553</v>
+        <v>0.1439905963471865</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7152044847559424</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3559905097378122</v>
+        <v>0.3553278476877447</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.659581112575312</v>
+        <v>-1.622316996888079</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1146540279643843</v>
+        <v>0.1126156732022999</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6601514509049535</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2260300469684997</v>
+        <v>0.2235163384317825</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.606544538283085</v>
+        <v>-1.573194221140966</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07789123736728541</v>
+        <v>0.07524373720525765</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.6128874820426641</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1190848917908457</v>
+        <v>0.1168686728680543</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.564137315117002</v>
+        <v>-1.527110876317085</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04672251072728919</v>
+        <v>0.04571986054702065</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5722828588575537</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02946653910046975</v>
+        <v>0.02290917544113109</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.543158788268306</v>
+        <v>-1.512162416722092</v>
       </c>
       <c r="G53" t="n">
-        <v>0.007272869490130053</v>
+        <v>0.006542524617846534</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.5361131515407322</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.06164398371689926</v>
+        <v>-0.07006813405410055</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.525708425280006</v>
+        <v>-1.493950228479083</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01323345162217531</v>
+        <v>-0.01475080605510917</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.5035573633151436</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.133834796696234</v>
+        <v>-0.1419063667502639</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.513218583552485</v>
+        <v>-1.480111452364607</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04293991449848319</v>
+        <v>-0.0445800424228785</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4730594287135912</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2011367062848088</v>
+        <v>-0.2139051493968</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.518583627727439</v>
+        <v>-1.486241469832513</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07450057189968327</v>
+        <v>-0.07441557486713304</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.4452438210254634</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2572835423607256</v>
+        <v>-0.267681512676038</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.515454477714293</v>
+        <v>-1.481823985168582</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1059274376755728</v>
+        <v>-0.1120912965545863</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.4202443510817511</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3405869303364433</v>
+        <v>-0.3543076550168213</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.514612377484397</v>
+        <v>-1.481122759650043</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1266714356751946</v>
+        <v>-0.1310330426603188</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3983745915941989</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4142463031559515</v>
+        <v>-0.4296291920284231</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.533358945219088</v>
+        <v>-1.503586373539686</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1504517165598054</v>
+        <v>-0.1541522355139833</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3796422536596759</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4844349638129918</v>
+        <v>-0.4937500089728493</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.547654186878741</v>
+        <v>-1.519092035903619</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1819635793682451</v>
+        <v>-0.1889175958461516</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3620333927040701</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5558482113464041</v>
+        <v>-0.5671118921784317</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.576010141348973</v>
+        <v>-1.549354127529746</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2044138140953568</v>
+        <v>-0.2103431441252965</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3447002278588136</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6104367684922332</v>
+        <v>-0.6227660602693814</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.605925948768414</v>
+        <v>-1.575090127172573</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2175993722744927</v>
+        <v>-0.2217532087356052</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.3260631840142058</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6623951396863689</v>
+        <v>-0.6761331785770812</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.65032194509426</v>
+        <v>-1.621166388910408</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2506742360703841</v>
+        <v>-0.2561297863448123</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3055119932626302</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.717710893666239</v>
+        <v>-0.7335124716249766</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.691300745907763</v>
+        <v>-1.664224468983149</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2727388361127771</v>
+        <v>-0.2756240131621213</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2827095790851332</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7922926416908295</v>
+        <v>-0.8123897178315966</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.735970621560716</v>
+        <v>-1.708755830953427</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2981718370747536</v>
+        <v>-0.3054312132621924</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2572820937801635</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8645235921577573</v>
+        <v>-0.8929645436605395</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.775013378855019</v>
+        <v>-1.74777497796091</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3191015693306888</v>
+        <v>-0.3236048380367301</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2298646292086469</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9174680863313879</v>
+        <v>-0.9453030404724693</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.805919244301758</v>
+        <v>-1.776070332694972</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3424269586892438</v>
+        <v>-0.3479533398241305</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2008191216277715</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9556545772237033</v>
+        <v>-0.9936986193855409</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.839785839715663</v>
+        <v>-1.808292078127119</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3664638046906266</v>
+        <v>-0.3742835316852484</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1708585339631355</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9772068340421129</v>
+        <v>-1.019329946756801</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.879949298624332</v>
+        <v>-1.841109589796677</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3853284238594153</v>
+        <v>-0.3921974433047715</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1403850979648218</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9747907146909164</v>
+        <v>-1.01677531372293</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.910933865027137</v>
+        <v>-1.874792024973391</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4075252415079976</v>
+        <v>-0.418562263586558</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1087967958758067</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9817297779871704</v>
+        <v>-1.016801285038432</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.937010639809725</v>
+        <v>-1.899687498405443</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4168969513562219</v>
+        <v>-0.4283227561577436</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.07589633149710355</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9823365623584319</v>
+        <v>-1.02352785575331</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.979978213782991</v>
+        <v>-1.944085068750411</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4220707522079373</v>
+        <v>-0.4329645385464593</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.04053899086143349</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.944772596028591</v>
+        <v>-0.9885381976963565</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.002781815802835</v>
+        <v>-1.961012857390439</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4345668900119434</v>
+        <v>-0.4451679087939036</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.00322123537075359</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8925552986890013</v>
+        <v>-0.9331846672575753</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.040201759383077</v>
+        <v>-2.001447834597533</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4341057024094023</v>
+        <v>-0.4476784692923781</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.03544460682205447</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8333422733647907</v>
+        <v>-0.8752316442399659</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.066118771224853</v>
+        <v>-2.025298159333041</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4410471267343383</v>
+        <v>-0.4539351952995484</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.07570448549186885</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7440757139480254</v>
+        <v>-0.783972376615634</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.096391093975269</v>
+        <v>-2.061590318212871</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4333690614606336</v>
+        <v>-0.4444485820554691</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1164872413011627</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6482698920918165</v>
+        <v>-0.6927847268613212</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.089596840438174</v>
+        <v>-2.059038833217243</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4196656509905898</v>
+        <v>-0.4283841429034743</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1576954262961202</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5370355348086182</v>
+        <v>-0.5802108793058961</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.093114773174281</v>
+        <v>-2.067354376235074</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4116696338543823</v>
+        <v>-0.4203440532318704</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.198470239564917</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3797469520552831</v>
+        <v>-0.4223194472291028</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.075642373918283</v>
+        <v>-2.052660907737732</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3867198567626451</v>
+        <v>-0.394582082273542</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2377558160677049</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2391650082554334</v>
+        <v>-0.2845644417711092</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.042533668711284</v>
+        <v>-2.019622246381631</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3670383216699013</v>
+        <v>-0.3757819978887266</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2751114484050522</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.03916699066472544</v>
+        <v>-0.08195827449640594</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.009405288265268</v>
+        <v>-1.983238794392766</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3401477790016004</v>
+        <v>-0.3507771301277439</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3087059661516832</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1320815676754255</v>
+        <v>0.09232656672873402</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.966312579771859</v>
+        <v>-1.939358289329145</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.318808801774127</v>
+        <v>-0.3347551894920242</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3385939725003171</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3392429462871729</v>
+        <v>0.2959369582028271</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.907758281449912</v>
+        <v>-1.883668705807966</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2804987503807895</v>
+        <v>-0.293027942586343</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3637790880213024</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5482223169840227</v>
+        <v>0.5136600051185021</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.825677119321885</v>
+        <v>-1.805481666986036</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2492938213010034</v>
+        <v>-0.2652701153822054</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3841788999504507</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7302812386492666</v>
+        <v>0.6998617451110096</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.709704964483571</v>
+        <v>-1.690227264867036</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2231147352755303</v>
+        <v>-0.2425302611367743</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4001162406772721</v>
       </c>
       <c r="E86" t="n">
-        <v>0.945289102580698</v>
+        <v>0.9115830571171651</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.618004184495715</v>
+        <v>-1.603527930637112</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1893425810089027</v>
+        <v>-0.208550336346135</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4108185397946338</v>
       </c>
       <c r="E87" t="n">
-        <v>1.155283715610787</v>
+        <v>1.126622401431022</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.495764285516382</v>
+        <v>-1.488037425649917</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1520603641017747</v>
+        <v>-0.167232334411992</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4182983930614826</v>
       </c>
       <c r="E88" t="n">
-        <v>1.323451918530552</v>
+        <v>1.300729378495455</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.341357731774148</v>
+        <v>-1.329687166999264</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1247165039265391</v>
+        <v>-0.1423612582763198</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.423243438977316</v>
       </c>
       <c r="E89" t="n">
-        <v>1.455908775626248</v>
+        <v>1.436261868954172</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.160033877038552</v>
+        <v>-1.147565284569168</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09710033844331856</v>
+        <v>-0.1146097271486674</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.4273584994087471</v>
       </c>
       <c r="E90" t="n">
-        <v>1.570772821003165</v>
+        <v>1.552766042255485</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9742342989315366</v>
+        <v>-0.9632177391015531</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07283683368846845</v>
+        <v>-0.08774909084367116</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.433167392667666</v>
       </c>
       <c r="E91" t="n">
-        <v>1.648031975553088</v>
+        <v>1.625273233078202</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7785860831825431</v>
+        <v>-0.7702815582985606</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.07596440968249292</v>
+        <v>-0.09167469453219508</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4406256880324359</v>
       </c>
       <c r="E92" t="n">
-        <v>1.707504714032313</v>
+        <v>1.693283451271362</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5730695545525548</v>
+        <v>-0.5711051786891715</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.06999258113627811</v>
+        <v>-0.08460105260106979</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4514641864448935</v>
       </c>
       <c r="E93" t="n">
-        <v>1.715137132751501</v>
+        <v>1.705848845916705</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4002343849381328</v>
+        <v>-0.4003052157985914</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07526397117351412</v>
+        <v>-0.08699828372281074</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4666371572964429</v>
       </c>
       <c r="E94" t="n">
-        <v>1.701507701180158</v>
+        <v>1.69362029136332</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2150069627817105</v>
+        <v>-0.2161512746828961</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09559085410599119</v>
+        <v>-0.1027715293373649</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4862051825803679</v>
       </c>
       <c r="E95" t="n">
-        <v>1.668717734845222</v>
+        <v>1.662286292715587</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07476028505469789</v>
+        <v>-0.07304145617423755</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1007803951489196</v>
+        <v>-0.1092690802700942</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.508249187110737</v>
       </c>
       <c r="E96" t="n">
-        <v>1.605985202765783</v>
+        <v>1.606559719745058</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0343774787589279</v>
+        <v>0.02895026082868312</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1144586213130225</v>
+        <v>-0.1187556935141734</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.5271315784238946</v>
       </c>
       <c r="E97" t="n">
-        <v>1.510991574776165</v>
+        <v>1.518668066030749</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09747046121714467</v>
+        <v>0.09137743319858971</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1368474692944035</v>
+        <v>-0.1388370294637276</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.5369808560503795</v>
       </c>
       <c r="E98" t="n">
-        <v>1.379864763837969</v>
+        <v>1.381822843624867</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1455032287227565</v>
+        <v>0.1409716276725318</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1452794897272113</v>
+        <v>-0.1475744096060677</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.5345261272634323</v>
       </c>
       <c r="E99" t="n">
-        <v>1.252107927838477</v>
+        <v>1.254220261499263</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1577790038497805</v>
+        <v>0.1496145666675938</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1604247017123665</v>
+        <v>-0.1617264155256822</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5187693690690195</v>
       </c>
       <c r="E100" t="n">
-        <v>1.12411498897079</v>
+        <v>1.124779225039979</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1763162270413387</v>
+        <v>0.1649628271193969</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1675959328290124</v>
+        <v>-0.1688693142981447</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4954160222293761</v>
       </c>
       <c r="E101" t="n">
-        <v>1.012018069209119</v>
+        <v>1.016069594427347</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1876853671544936</v>
+        <v>0.1777422883652371</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1912896426619517</v>
+        <v>-0.1928762539362228</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4622922572269645</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8962835912581224</v>
+        <v>0.8987296169726237</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1851354561779865</v>
+        <v>0.1698721927587337</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1944990676502838</v>
+        <v>-0.1921175767197559</v>
       </c>
     </row>
   </sheetData>
